--- a/REGULAR/OJT/NEW DONE/MENDOZA, LOURDES G..xlsx
+++ b/REGULAR/OJT/NEW DONE/MENDOZA, LOURDES G..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD60364-DCE1-4B9E-AB17-3B52F552BFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03413A-6EFD-4339-AB08-DBCBD7A9825C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="401">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3651,7 +3651,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K1306" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K1308" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="20"/>
@@ -4029,12 +4029,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K1306"/>
+  <dimension ref="A2:K1308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A601" activePane="bottomLeft"/>
+      <pane ySplit="3696" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K606" sqref="K606"/>
+      <selection pane="bottomLeft" activeCell="K609" sqref="K609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4195,7 +4195,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.187000000000239</v>
+        <v>28.437000000000239</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4205,7 +4205,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>75.710000000000036</v>
+        <v>73.960000000000036</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17523,10 +17523,10 @@
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A606" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B606" s="20"/>
+      <c r="A606" s="40"/>
+      <c r="B606" s="20" t="s">
+        <v>235</v>
+      </c>
       <c r="C606" s="13"/>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
@@ -17538,31 +17538,41 @@
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20"/>
+      <c r="K606" s="20" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B607" s="20"/>
-      <c r="C607" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B607" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C607" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D607" s="39"/>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H607" s="39"/>
+      <c r="G607" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H607" s="39">
+        <v>1</v>
+      </c>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="20"/>
+      <c r="K607" s="48">
+        <v>45013</v>
+      </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A608" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B608" s="20"/>
+      <c r="A608" s="40"/>
+      <c r="B608" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C608" s="13"/>
       <c r="D608" s="39"/>
       <c r="E608" s="9"/>
@@ -17571,16 +17581,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H608" s="39"/>
+      <c r="H608" s="39">
+        <v>1</v>
+      </c>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
-      <c r="K608" s="20"/>
+      <c r="K608" s="48">
+        <v>44987</v>
+      </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B609" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B609" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
       <c r="E609" s="9"/>
@@ -17589,14 +17605,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H609" s="39"/>
+      <c r="H609" s="39">
+        <v>1</v>
+      </c>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="20"/>
+      <c r="K609" s="48">
+        <v>45021</v>
+      </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17614,7 +17634,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17632,7 +17652,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17650,7 +17670,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17668,7 +17688,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17686,7 +17706,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17704,7 +17724,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17722,7 +17742,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17740,7 +17760,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17758,7 +17778,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17776,7 +17796,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17794,7 +17814,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17812,7 +17832,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17830,7 +17850,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17848,7 +17868,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17866,7 +17886,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17884,7 +17904,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17902,7 +17922,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17920,7 +17940,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17938,7 +17958,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17956,7 +17976,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17974,7 +17994,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17992,7 +18012,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18010,7 +18030,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18028,7 +18048,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18046,7 +18066,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18064,7 +18084,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18082,7 +18102,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18100,7 +18120,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18118,7 +18138,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18136,7 +18156,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18154,7 +18174,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18172,7 +18192,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18190,7 +18210,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18208,7 +18228,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18226,7 +18246,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18244,7 +18264,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18262,7 +18282,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18280,7 +18300,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18298,7 +18318,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18316,7 +18336,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18334,7 +18354,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18352,7 +18372,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18370,7 +18390,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18388,7 +18408,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18406,7 +18426,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18424,7 +18444,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18442,7 +18462,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18460,7 +18480,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18478,7 +18498,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18496,7 +18516,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18514,7 +18534,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18532,7 +18552,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18550,7 +18570,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18568,7 +18588,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18586,7 +18606,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18604,7 +18624,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18622,7 +18642,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18640,7 +18660,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18658,7 +18678,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18676,7 +18696,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18694,7 +18714,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18712,7 +18732,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18730,7 +18750,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18748,7 +18768,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18766,7 +18786,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18784,7 +18804,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18802,7 +18822,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18820,7 +18840,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18838,7 +18858,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18856,7 +18876,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18874,7 +18894,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18892,7 +18912,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18910,7 +18930,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18928,7 +18948,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18946,7 +18966,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18964,7 +18984,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18982,7 +19002,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19000,7 +19020,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19018,7 +19038,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19036,7 +19056,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19054,7 +19074,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19072,7 +19092,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19090,7 +19110,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19108,7 +19128,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19126,7 +19146,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19144,7 +19164,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19162,7 +19182,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19180,7 +19200,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19198,7 +19218,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19216,7 +19236,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19234,7 +19254,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19252,7 +19272,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19270,7 +19290,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19288,7 +19308,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19306,7 +19326,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19324,7 +19344,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19342,7 +19362,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19360,7 +19380,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19378,7 +19398,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19395,7 +19415,9 @@
       <c r="K709" s="20"/>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A710" s="40"/>
+      <c r="A710" s="40">
+        <v>48092</v>
+      </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
       <c r="D710" s="39"/>
@@ -19411,7 +19433,9 @@
       <c r="K710" s="20"/>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A711" s="40"/>
+      <c r="A711" s="40">
+        <v>48122</v>
+      </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
       <c r="D711" s="39"/>
@@ -28931,20 +28955,52 @@
       <c r="K1305" s="20"/>
     </row>
     <row r="1306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1306" s="50"/>
-      <c r="B1306" s="15"/>
-      <c r="C1306" s="41"/>
-      <c r="D1306" s="42"/>
-      <c r="E1306" s="51"/>
-      <c r="F1306" s="15"/>
+      <c r="A1306" s="40"/>
+      <c r="B1306" s="20"/>
+      <c r="C1306" s="13"/>
+      <c r="D1306" s="39"/>
+      <c r="E1306" s="9"/>
+      <c r="F1306" s="20"/>
       <c r="G1306" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H1306" s="42"/>
-      <c r="I1306" s="51"/>
-      <c r="J1306" s="12"/>
-      <c r="K1306" s="15"/>
+      <c r="H1306" s="39"/>
+      <c r="I1306" s="9"/>
+      <c r="J1306" s="11"/>
+      <c r="K1306" s="20"/>
+    </row>
+    <row r="1307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1307" s="40"/>
+      <c r="B1307" s="20"/>
+      <c r="C1307" s="13"/>
+      <c r="D1307" s="39"/>
+      <c r="E1307" s="9"/>
+      <c r="F1307" s="20"/>
+      <c r="G1307" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1307" s="39"/>
+      <c r="I1307" s="9"/>
+      <c r="J1307" s="11"/>
+      <c r="K1307" s="20"/>
+    </row>
+    <row r="1308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1308" s="50"/>
+      <c r="B1308" s="15"/>
+      <c r="C1308" s="41"/>
+      <c r="D1308" s="42"/>
+      <c r="E1308" s="51"/>
+      <c r="F1308" s="15"/>
+      <c r="G1308" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1308" s="42"/>
+      <c r="I1308" s="51"/>
+      <c r="J1308" s="12"/>
+      <c r="K1308" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
